--- a/clusterMinMax.xlsx
+++ b/clusterMinMax.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Vratar\Documents\Studium\Wirtschaftsinformatik_Bachelor\Module\Bachelorarbeit\Repository\bachelor_thesis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CCEAA1-F9DD-41E0-95CB-1C6576E420C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>duration</t>
-  </si>
-  <si>
-    <t>dist_center_start</t>
-  </si>
-  <si>
-    <t>dist_center_end</t>
   </si>
   <si>
     <t>evening_peak_time</t>
@@ -136,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,23 +184,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -254,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,27 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,24 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,19 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -556,297 +495,891 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1052.1914191419139</v>
+        <v>1113.505295007564</v>
       </c>
       <c r="C2">
-        <v>1968.2542236524539</v>
+        <v>1854.155325443787</v>
       </c>
       <c r="D2">
-        <v>1709.4642758620689</v>
+        <v>1741.487064676617</v>
       </c>
       <c r="E2">
-        <v>1813.881295943371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000.254896229173</v>
+      </c>
+      <c r="F2">
+        <v>1579.411224489796</v>
+      </c>
+      <c r="G2">
+        <v>1785.770547945205</v>
+      </c>
+      <c r="H2">
+        <v>1786.416547788873</v>
+      </c>
+      <c r="I2">
+        <v>1799.382838283828</v>
+      </c>
+      <c r="J2">
+        <v>1614.074015748032</v>
+      </c>
+      <c r="K2">
+        <v>2135.392125984252</v>
+      </c>
+      <c r="L2">
+        <v>1955.427857935627</v>
+      </c>
+      <c r="M2">
+        <v>1640.54375</v>
+      </c>
+      <c r="N2">
+        <v>1835.274382314694</v>
+      </c>
+      <c r="O2">
+        <v>942.8254649499285</v>
+      </c>
+      <c r="P2">
+        <v>1816.255649717514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1077.4026402640261</v>
+        <v>0.15</v>
       </c>
       <c r="C3">
-        <v>3530.775989988379</v>
+        <v>0.18</v>
       </c>
       <c r="D3">
-        <v>1540.4736551724141</v>
+        <v>0.29</v>
       </c>
       <c r="E3">
-        <v>3013.829839368364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.17</v>
+      </c>
+      <c r="F3">
+        <v>0.13</v>
+      </c>
+      <c r="G3">
+        <v>0.15</v>
+      </c>
+      <c r="H3">
+        <v>0.12</v>
+      </c>
+      <c r="I3">
+        <v>0.17</v>
+      </c>
+      <c r="J3">
+        <v>0.14</v>
+      </c>
+      <c r="K3">
+        <v>0.09</v>
+      </c>
+      <c r="L3">
+        <v>0.16</v>
+      </c>
+      <c r="M3">
+        <v>0.18</v>
+      </c>
+      <c r="N3">
+        <v>0.16</v>
+      </c>
+      <c r="O3">
+        <v>0.15</v>
+      </c>
+      <c r="P3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1094.2937293729369</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C4">
-        <v>3587.148922856888</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>2999.5691034482761</v>
+        <v>0.12</v>
       </c>
       <c r="E4">
-        <v>1495.7683092839641</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0.11</v>
+      </c>
+      <c r="I4">
+        <v>0.11</v>
+      </c>
+      <c r="J4">
+        <v>0.17</v>
+      </c>
+      <c r="K4">
+        <v>0.02</v>
+      </c>
+      <c r="L4">
+        <v>0.12</v>
+      </c>
+      <c r="M4">
+        <v>0.12</v>
+      </c>
+      <c r="N4">
+        <v>0.09</v>
+      </c>
+      <c r="O4">
+        <v>0.06</v>
+      </c>
+      <c r="P4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="D5">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E5">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.18</v>
+      </c>
+      <c r="G5">
+        <v>0.26</v>
+      </c>
+      <c r="H5">
+        <v>0.29</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>0.28</v>
+      </c>
+      <c r="K5">
+        <v>0.55</v>
+      </c>
+      <c r="L5">
+        <v>0.29</v>
+      </c>
+      <c r="M5">
+        <v>0.28</v>
+      </c>
+      <c r="N5">
+        <v>0.29</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="D6">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E6">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0.23</v>
+      </c>
+      <c r="G6">
+        <v>0.14</v>
+      </c>
+      <c r="H6">
+        <v>0.14</v>
+      </c>
+      <c r="I6">
+        <v>0.14</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>0.09</v>
+      </c>
+      <c r="L6">
+        <v>0.11</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0.14</v>
+      </c>
+      <c r="O6">
+        <v>0.11</v>
+      </c>
+      <c r="P6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.28999999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>0.04</v>
+      </c>
+      <c r="H7">
+        <v>0.04</v>
+      </c>
+      <c r="I7">
+        <v>0.04</v>
+      </c>
+      <c r="J7">
+        <v>0.08</v>
+      </c>
+      <c r="K7">
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>0.04</v>
+      </c>
+      <c r="M7">
+        <v>0.04</v>
+      </c>
+      <c r="N7">
+        <v>0.04</v>
+      </c>
+      <c r="O7">
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="C8">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="D8">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.21</v>
+      </c>
+      <c r="F8">
+        <v>0.16</v>
+      </c>
+      <c r="G8">
+        <v>0.17</v>
+      </c>
+      <c r="H8">
+        <v>0.17</v>
+      </c>
+      <c r="I8">
+        <v>0.17</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>0.14</v>
+      </c>
+      <c r="L8">
+        <v>0.19</v>
+      </c>
+      <c r="M8">
+        <v>0.2</v>
+      </c>
+      <c r="N8">
+        <v>0.18</v>
+      </c>
+      <c r="O8">
+        <v>0.21</v>
+      </c>
+      <c r="P8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.09</v>
+      </c>
+      <c r="H9">
+        <v>0.08</v>
+      </c>
+      <c r="I9">
+        <v>0.09</v>
+      </c>
+      <c r="J9">
         <v>0.04</v>
       </c>
-      <c r="C9">
-        <v>0.05</v>
-      </c>
-      <c r="D9">
-        <v>0.05</v>
-      </c>
-      <c r="E9">
+      <c r="K9">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0.06</v>
+      </c>
+      <c r="M9">
+        <v>0.06</v>
+      </c>
+      <c r="N9">
+        <v>0.06</v>
+      </c>
+      <c r="O9">
+        <v>0.08</v>
+      </c>
+      <c r="P9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="D10">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="E10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="F10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.06</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <v>0.04</v>
+      </c>
+      <c r="J10">
+        <v>0.03</v>
+      </c>
+      <c r="K10">
+        <v>0.03</v>
+      </c>
+      <c r="L10">
+        <v>0.03</v>
+      </c>
+      <c r="M10">
+        <v>0.03</v>
+      </c>
+      <c r="N10">
+        <v>0.04</v>
+      </c>
+      <c r="O10">
+        <v>0.06</v>
+      </c>
+      <c r="P10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.01</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.01</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0.49</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+      <c r="F13">
+        <v>0.97</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.73</v>
+      </c>
+      <c r="I13">
+        <v>0.44</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
+        <v>0.36</v>
+      </c>
+      <c r="M13">
+        <v>0.98</v>
+      </c>
+      <c r="N13">
+        <v>0.36</v>
+      </c>
+      <c r="O13">
+        <v>0.99</v>
+      </c>
+      <c r="P13">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.26</v>
+      </c>
+      <c r="F14">
+        <v>0.46</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0.45</v>
+      </c>
+      <c r="I14">
+        <v>0.96</v>
+      </c>
+      <c r="J14">
+        <v>0.98</v>
+      </c>
+      <c r="K14">
+        <v>0.22</v>
+      </c>
+      <c r="L14">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.51</v>
+      </c>
+      <c r="N14">
+        <v>0.54</v>
+      </c>
+      <c r="O14">
+        <v>0.99</v>
+      </c>
+      <c r="P14">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="C15">
+        <v>0.66</v>
+      </c>
+      <c r="D15">
+        <v>0.85</v>
+      </c>
+      <c r="E15">
         <v>0.35</v>
       </c>
-      <c r="D15">
-        <v>0.92</v>
-      </c>
-      <c r="E15">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.95</v>
+      </c>
+      <c r="H15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.61</v>
+      </c>
+      <c r="J15">
+        <v>0.61</v>
+      </c>
+      <c r="K15">
+        <v>0.47</v>
+      </c>
+      <c r="L15">
+        <v>0.55</v>
+      </c>
+      <c r="M15">
+        <v>0.91</v>
+      </c>
+      <c r="N15">
+        <v>0.52</v>
+      </c>
+      <c r="O15">
+        <v>0.93</v>
+      </c>
+      <c r="P15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C16">
-        <v>0.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D16">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+      <c r="F16">
+        <v>0.61</v>
+      </c>
+      <c r="G16">
+        <v>0.65</v>
+      </c>
+      <c r="H16">
+        <v>0.63</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.86</v>
+      </c>
+      <c r="K16">
+        <v>0.41</v>
+      </c>
+      <c r="L16">
+        <v>0.88</v>
+      </c>
+      <c r="M16">
+        <v>0.65</v>
+      </c>
+      <c r="N16">
+        <v>0.72</v>
+      </c>
+      <c r="O16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="D17">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="E17">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+      <c r="F17">
+        <v>0.99</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.88</v>
+      </c>
+      <c r="I17">
+        <v>0.47</v>
+      </c>
+      <c r="J17">
+        <v>0.55</v>
+      </c>
+      <c r="K17">
+        <v>0.37</v>
+      </c>
+      <c r="L17">
+        <v>0.4</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0.4</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="C18">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="E18">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.48</v>
+      </c>
+      <c r="I18">
+        <v>0.98</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.35</v>
+      </c>
+      <c r="L18">
+        <v>0.88</v>
+      </c>
+      <c r="M18">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.53</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -854,84 +1387,249 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.43</v>
+        <v>0.89</v>
       </c>
       <c r="D19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.78</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0.91</v>
+      </c>
+      <c r="J19">
+        <v>0.92</v>
+      </c>
+      <c r="K19">
+        <v>0.86</v>
+      </c>
+      <c r="L19">
+        <v>0.87</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.86</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.49</v>
+        <v>0.85</v>
       </c>
       <c r="E20">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.92</v>
+      </c>
+      <c r="G20">
+        <v>0.89</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.93</v>
+      </c>
+      <c r="N20">
+        <v>0.95</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C21">
+        <v>0.7</v>
+      </c>
+      <c r="D21">
         <v>0.86</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.47</v>
+      </c>
+      <c r="F21">
+        <v>0.99</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.96</v>
+      </c>
+      <c r="I21">
+        <v>0.67</v>
+      </c>
+      <c r="J21">
+        <v>0.68</v>
+      </c>
+      <c r="K21">
+        <v>0.57</v>
+      </c>
+      <c r="L21">
+        <v>0.58</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0.59</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C22">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.91</v>
+        <v>0.57</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.51</v>
+      </c>
+      <c r="F22">
+        <v>0.67</v>
+      </c>
+      <c r="G22">
+        <v>0.67</v>
+      </c>
+      <c r="H22">
+        <v>0.65</v>
+      </c>
+      <c r="I22">
+        <v>0.98</v>
+      </c>
+      <c r="J22">
+        <v>0.99</v>
+      </c>
+      <c r="K22">
+        <v>0.51</v>
+      </c>
+      <c r="L22">
+        <v>0.89</v>
+      </c>
+      <c r="M22">
+        <v>0.68</v>
+      </c>
+      <c r="N22">
+        <v>0.73</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="D23">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.95</v>
+      </c>
+      <c r="I23">
+        <v>0.74</v>
+      </c>
+      <c r="J23">
+        <v>0.8</v>
+      </c>
+      <c r="K23">
+        <v>0.57</v>
+      </c>
+      <c r="L23">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0.62</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -939,186 +1637,549 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="E24">
+        <v>0.54</v>
+      </c>
+      <c r="F24">
+        <v>0.75</v>
+      </c>
+      <c r="G24">
+        <v>0.77</v>
+      </c>
+      <c r="H24">
+        <v>0.68</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.54</v>
+      </c>
+      <c r="L24">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>0.76</v>
+      </c>
+      <c r="N24">
+        <v>0.73</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C25">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="E25">
+        <v>0.43</v>
+      </c>
+      <c r="F25">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>0.71</v>
+      </c>
+      <c r="K25">
+        <v>0.77</v>
+      </c>
+      <c r="L25">
+        <v>0.67</v>
+      </c>
+      <c r="M25">
+        <v>0.65</v>
+      </c>
+      <c r="N25">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.86</v>
+      </c>
+      <c r="P25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C26">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.74</v>
+      </c>
+      <c r="G26">
+        <v>0.75</v>
+      </c>
+      <c r="H26">
+        <v>0.78</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.86</v>
+      </c>
+      <c r="M26">
+        <v>0.72</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0.86</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="D27">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="E27">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.46</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.98</v>
+      </c>
+      <c r="I27">
+        <v>0.75</v>
+      </c>
+      <c r="J27">
+        <v>0.79</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
+        <v>0.65</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0.65</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="D28">
+        <v>0.61</v>
+      </c>
+      <c r="E28">
+        <v>0.55</v>
+      </c>
+      <c r="F28">
         <v>0.73</v>
       </c>
-      <c r="E28">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>0.77</v>
+      </c>
+      <c r="H28">
+        <v>0.7</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>0.98</v>
+      </c>
+      <c r="M28">
+        <v>0.75</v>
+      </c>
+      <c r="N28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="C29">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="E29">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.13</v>
+      </c>
+      <c r="F29">
+        <v>0.98</v>
+      </c>
+      <c r="G29">
+        <v>0.72</v>
+      </c>
+      <c r="H29">
+        <v>0.99</v>
+      </c>
+      <c r="I29">
+        <v>0.45</v>
+      </c>
+      <c r="J29">
+        <v>0.43</v>
+      </c>
+      <c r="K29">
+        <v>0.55</v>
+      </c>
+      <c r="L29">
+        <v>0.4</v>
+      </c>
+      <c r="M29">
+        <v>0.42</v>
+      </c>
+      <c r="N29">
+        <v>0.43</v>
+      </c>
+      <c r="O29">
+        <v>0.65</v>
+      </c>
+      <c r="P29">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="C30">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="D30">
-        <v>0.72</v>
+        <v>0.34</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="F30">
+        <v>0.48</v>
+      </c>
+      <c r="G30">
+        <v>0.53</v>
+      </c>
+      <c r="H30">
+        <v>0.55</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.22</v>
+      </c>
+      <c r="K30">
+        <v>0.23</v>
+      </c>
+      <c r="L30">
+        <v>0.6</v>
+      </c>
+      <c r="M30">
+        <v>0.49</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0.68</v>
+      </c>
+      <c r="P30">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.41</v>
+        <v>0.91</v>
       </c>
       <c r="D31">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.82</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J31">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.91</v>
+      </c>
+      <c r="L31">
+        <v>0.9</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0.9</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.49</v>
+        <v>0.89</v>
       </c>
       <c r="E32">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.86</v>
+      </c>
+      <c r="F32">
+        <v>0.95</v>
+      </c>
+      <c r="G32">
+        <v>0.93</v>
+      </c>
+      <c r="H32">
+        <v>0.93</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.86</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.99</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C33">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E33">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.38</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.77</v>
+      </c>
+      <c r="I33">
+        <v>0.62</v>
+      </c>
+      <c r="J33">
+        <v>0.68</v>
+      </c>
+      <c r="K33">
+        <v>0.45</v>
+      </c>
+      <c r="L33">
+        <v>0.52</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.51</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.42</v>
+      </c>
+      <c r="F34">
+        <v>0.63</v>
+      </c>
+      <c r="G34">
+        <v>0.64</v>
+      </c>
+      <c r="H34">
+        <v>0.55</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.4</v>
+      </c>
+      <c r="L34">
         <v>0.9</v>
       </c>
-      <c r="D34">
-        <v>0.93</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N34">
+        <v>0.6</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1126,16 +2187,49 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="D35">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="E35">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.61</v>
+      </c>
+      <c r="F35">
+        <v>0.99</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.97</v>
+      </c>
+      <c r="I35">
+        <v>0.8</v>
+      </c>
+      <c r="J35">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K35">
+        <v>0.67</v>
+      </c>
+      <c r="L35">
+        <v>0.72</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0.71</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1143,47 +2237,46 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E36">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0.71</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+        <v>0.66</v>
+      </c>
+      <c r="F36">
+        <v>0.79</v>
+      </c>
+      <c r="G36">
+        <v>0.79</v>
+      </c>
+      <c r="H36">
+        <v>0.76</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.63</v>
+      </c>
+      <c r="L36">
+        <v>0.99</v>
+      </c>
+      <c r="M36">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0.71</v>
-      </c>
-      <c r="D38">
-        <v>0.77</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="N36">
+        <v>0.84</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
